--- a/docs/plants.xlsx
+++ b/docs/plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCode_Projects\luntian\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B7B1C2-B660-4125-99A5-70CA41C35C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67A69F-B5BA-4291-AAC6-6D46331E4178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{373FB487-F86D-444F-B188-DECE0CEA9E88}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
   <si>
     <t>commonName</t>
   </si>
@@ -68,6 +68,321 @@
   </si>
   <si>
     <t xml:space="preserve"> diseaseType</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Oryza sativa</t>
+  </si>
+  <si>
+    <t>Poaceae</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>IR64, NSIC Rc160</t>
+  </si>
+  <si>
+    <t>90–120 days</t>
+  </si>
+  <si>
+    <t>Germination,</t>
+  </si>
+  <si>
+    <t>20–35°C</t>
+  </si>
+  <si>
+    <t>70–90%</t>
+  </si>
+  <si>
+    <t>70–100%</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Mangifera indica</t>
+  </si>
+  <si>
+    <t>Anacardiaceae</t>
+  </si>
+  <si>
+    <t>Mangifera</t>
+  </si>
+  <si>
+    <t>indica</t>
+  </si>
+  <si>
+    <t>Carabao mango</t>
+  </si>
+  <si>
+    <t>10–20 years</t>
+  </si>
+  <si>
+    <t>Seedling</t>
+  </si>
+  <si>
+    <t>24–30°C</t>
+  </si>
+  <si>
+    <t>50–80%</t>
+  </si>
+  <si>
+    <t>50–60%</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Musa spp.</t>
+  </si>
+  <si>
+    <t>Musaceae</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>acuminata</t>
+  </si>
+  <si>
+    <t>Cavendish</t>
+  </si>
+  <si>
+    <t>9–12 months</t>
+  </si>
+  <si>
+    <t>flowering</t>
+  </si>
+  <si>
+    <t>25–35°C</t>
+  </si>
+  <si>
+    <t>75–90%</t>
+  </si>
+  <si>
+    <t>70–80%</t>
+  </si>
+  <si>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>Cocos nucifera</t>
+  </si>
+  <si>
+    <t>Arecaceae</t>
+  </si>
+  <si>
+    <t>Cocos</t>
+  </si>
+  <si>
+    <t>nucifera</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>60–100 years</t>
+  </si>
+  <si>
+    <t>27–32°C</t>
+  </si>
+  <si>
+    <t>50–70%</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Saccharum officinarum</t>
+  </si>
+  <si>
+    <t>Saccharum</t>
+  </si>
+  <si>
+    <t>officinarum</t>
+  </si>
+  <si>
+    <t>Phil 99-1793,</t>
+  </si>
+  <si>
+    <t>10–18 months</t>
+  </si>
+  <si>
+    <t>maturation</t>
+  </si>
+  <si>
+    <t>60–90%</t>
+  </si>
+  <si>
+    <t>60–80%</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Solanum lycopersicum</t>
+  </si>
+  <si>
+    <t>Solanaceae</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>lycopersicum</t>
+  </si>
+  <si>
+    <t>Ruby Red</t>
+  </si>
+  <si>
+    <t>60–90 days</t>
+  </si>
+  <si>
+    <t>20–27°C</t>
+  </si>
+  <si>
+    <t>60–70%</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Solanum melongena</t>
+  </si>
+  <si>
+    <t>melongena</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>70–90 days</t>
+  </si>
+  <si>
+    <t>21–30°C</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Ananas comosus</t>
+  </si>
+  <si>
+    <t>Bromeliaceae</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>comosus</t>
+  </si>
+  <si>
+    <t>Red Spanish</t>
+  </si>
+  <si>
+    <t>18–24 months</t>
+  </si>
+  <si>
+    <t>Vegetative</t>
+  </si>
+  <si>
+    <t>22–32°C</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Carica papaya</t>
+  </si>
+  <si>
+    <t>Caricaceae</t>
+  </si>
+  <si>
+    <t>Carica</t>
+  </si>
+  <si>
+    <t>papaya</t>
+  </si>
+  <si>
+    <t>Sinta</t>
+  </si>
+  <si>
+    <t>6–12 months</t>
+  </si>
+  <si>
+    <t>fruiting</t>
+  </si>
+  <si>
+    <t>25–30°C</t>
+  </si>
+  <si>
+    <t>datePlanted</t>
+  </si>
+  <si>
+    <t>Sheath Blight</t>
+  </si>
+  <si>
+    <t>Rice (Oryza sativa)</t>
+  </si>
+  <si>
+    <t>Fungal</t>
+  </si>
+  <si>
+    <t>Bacterial Leaf Blight</t>
+  </si>
+  <si>
+    <t>Bacterial</t>
+  </si>
+  <si>
+    <t>Rice Tungro Disease</t>
+  </si>
+  <si>
+    <t>Viral</t>
+  </si>
+  <si>
+    <t>Panama Disease</t>
+  </si>
+  <si>
+    <t>Black Sigatoka</t>
+  </si>
+  <si>
+    <t>Anthracnose</t>
+  </si>
+  <si>
+    <t>Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Fire Blight</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Late Blight</t>
+  </si>
+  <si>
+    <t>Tomato Mosaic Virus</t>
+  </si>
+  <si>
+    <t>Coconut Cadang-Cadang</t>
+  </si>
+  <si>
+    <t>Viroid</t>
+  </si>
+  <si>
+    <t>Coffee Leaf Rust</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Papaya Ringspot Virus</t>
   </si>
 </sst>
 </file>
@@ -91,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,14 +414,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4AEB14-0EC2-4174-9FA9-435EC86F15E7}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,18 +766,18 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,27 +791,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -489,6 +824,331 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614925A2-5FDE-4119-B65E-39D68A5657C4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +1171,7 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -520,6 +1180,149 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
